--- a/sp1/07_tabelleninhalte/flights_tabellenstruktur.xlsx
+++ b/sp1/07_tabelleninhalte/flights_tabellenstruktur.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\01_proj1_flight\sp1\07_tabelleninhalte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{50387220-845E-40F5-8960-3C4F4925460A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B49FD3-D320-4A0A-AE55-C671C546BC98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neues Textdokument" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tabelle1!$A$1:$AI$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1120,7 +1128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1257,7 +1265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1443,6 +1451,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1604,10 +1624,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1962,11 +1985,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2159,10 +2182,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="4">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="str">
@@ -2183,10 +2206,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="4">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="str">
@@ -2205,10 +2228,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="4">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="str">
@@ -2227,10 +2250,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="4">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="str">
@@ -2249,10 +2272,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="4">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="str">
@@ -2271,10 +2294,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="4">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="str">
@@ -2293,10 +2316,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="4">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="str">
@@ -2315,20 +2338,20 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="4">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>INV_INVOICE_TYPE</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J16">
@@ -2337,20 +2360,20 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="4">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>LAN_LANDING</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J17">
@@ -2359,20 +2382,20 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="4">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>PAY_PAYMENT</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J18">
@@ -2381,10 +2404,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="4">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="str">
@@ -2403,20 +2426,20 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="4">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>PLA_ENGINE_TYPE</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J20">
@@ -2425,20 +2448,20 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="4">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>REL_AIRPORT_LOCATION</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J21">
@@ -2447,20 +2470,20 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>REL_BORD_LOG_ENTRY_PAY</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J22">
@@ -2469,20 +2492,20 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="4">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>REL_CONTACT_ADDRESS</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>8</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="J23">
@@ -2491,20 +2514,20 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="4">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>REL_CONTACT_BANKACCOUNT</v>
       </c>
-      <c r="F24">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="5">
+        <v>4</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>52</v>
       </c>
       <c r="J24">
@@ -2513,20 +2536,20 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="4">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>REL_DOC_FLIGHT</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <v>15</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="5" t="s">
         <v>54</v>
       </c>
       <c r="J25">
@@ -2535,20 +2558,20 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="4">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>REL_DOC_HANGAR</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="5">
         <v>17</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J26">
@@ -2557,10 +2580,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="4">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="str">
@@ -2579,10 +2602,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="1">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="4">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="str">
@@ -2601,10 +2624,10 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="1">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="4">
+        <v>0</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C29" t="str">
@@ -2623,10 +2646,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="1">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="A30" s="4">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="str">
@@ -2645,10 +2668,10 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="1">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="A31" s="4">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="str">
@@ -2667,10 +2690,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="1">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="4">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C32" t="str">
@@ -2689,10 +2712,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <v>1</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="str">
@@ -2711,10 +2734,10 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <v>1</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="str">
@@ -2733,10 +2756,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35">
+      <c r="A35" s="4">
         <v>2</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C35" t="str">
@@ -2755,10 +2778,10 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36">
+      <c r="A36" s="4">
         <v>2</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="str">
@@ -2777,10 +2800,10 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37">
+      <c r="A37" s="4">
         <v>2</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C37" t="str">
@@ -2799,10 +2822,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>2</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C38" t="str">
@@ -2821,10 +2844,10 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39">
+      <c r="A39" s="4">
         <v>2</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C39" t="str">
@@ -2843,10 +2866,10 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>2</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C40" t="str">
@@ -2865,10 +2888,10 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41">
+      <c r="A41" s="4">
         <v>2</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C41" t="str">
@@ -2887,10 +2910,10 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42">
+      <c r="A42" s="4">
         <v>3</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C42" t="str">
@@ -2909,10 +2932,10 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43">
+      <c r="A43" s="4">
         <v>3</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C43" t="str">
@@ -2931,10 +2954,10 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44">
+      <c r="A44" s="4">
         <v>3</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C44" t="str">
@@ -2953,10 +2976,10 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45">
+      <c r="A45" s="4">
         <v>3</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C45" t="str">
@@ -2975,10 +2998,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46">
+      <c r="A46" s="4">
         <v>4</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C46" t="str">
@@ -2997,10 +3020,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47">
+      <c r="A47" s="4">
         <v>5</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C47" t="str">
@@ -3019,10 +3042,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A48">
+      <c r="A48" s="4">
         <v>7</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C48" t="str">
@@ -3041,10 +3064,10 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A49">
+      <c r="A49" s="4">
         <v>8</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C49" t="str">
@@ -3063,10 +3086,10 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A50">
+      <c r="A50" s="4">
         <v>8</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C50" t="str">
@@ -3085,10 +3108,10 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51">
+      <c r="A51" s="4">
         <v>8</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C51" t="str">
@@ -3107,10 +3130,10 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52">
+      <c r="A52" s="4">
         <v>12</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C52" t="str">
@@ -3129,10 +3152,10 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A53">
+      <c r="A53" s="4">
         <v>12</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C53" t="str">
@@ -3151,10 +3174,10 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A54">
+      <c r="A54" s="4">
         <v>13</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C54" t="str">
@@ -3173,10 +3196,10 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A55">
+      <c r="A55" s="4">
         <v>15</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C55" t="str">
@@ -3195,10 +3218,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>17</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C56" t="str">
@@ -3217,10 +3240,10 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A57">
+      <c r="A57" s="4">
         <v>17</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C57" t="str">
@@ -3239,10 +3262,10 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A58">
+      <c r="A58" s="4">
         <v>42</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C58" t="str">
@@ -3261,10 +3284,10 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A59">
+      <c r="A59" s="4">
         <v>90</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C59" t="str">
@@ -3283,10 +3306,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A60">
+      <c r="A60" s="4">
         <v>729</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C60" t="str">
@@ -3326,11 +3349,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3432,7 +3455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3497,7 +3520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27616,7 +27639,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI1"/>
+  <autoFilter ref="A1:AI1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sp1/07_tabelleninhalte/flights_tabellenstruktur.xlsx
+++ b/sp1/07_tabelleninhalte/flights_tabellenstruktur.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\01_proj1_flight\sp1\07_tabelleninhalte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\09_Firmen\09_Gaudl_Flugzeugvermietung\git\sp1\07_tabelleninhalte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B49FD3-D320-4A0A-AE55-C671C546BC98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354FD5FA-2CFF-40CD-BA55-7ADA967ACF02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="0" windowWidth="13680" windowHeight="13080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neues Textdokument" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle3" sheetId="4" r:id="rId2"/>
-    <sheet name="Tabelle2" sheetId="3" r:id="rId3"/>
-    <sheet name="Tabelle1" sheetId="2" r:id="rId4"/>
+    <sheet name="Tabelle4" sheetId="5" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="4" r:id="rId3"/>
+    <sheet name="Tabelle2" sheetId="3" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tabelle1!$A$1:$AI$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Tabelle1!$A$1:$AI$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5603" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5655" uniqueCount="371">
   <si>
     <t>APL_ENGINE_TYPE</t>
   </si>
@@ -1123,6 +1124,30 @@
   </si>
   <si>
     <t>END_DATE</t>
+  </si>
+  <si>
+    <t>APL_PLANE_MAINT_PROGR</t>
+  </si>
+  <si>
+    <t>BOR_BORD_LOG_ENTRY_RPM</t>
+  </si>
+  <si>
+    <t>ORG_ORG_UNIT_CHECK_OUT</t>
+  </si>
+  <si>
+    <t>REL_ORG_UNIT_CONTACT</t>
+  </si>
+  <si>
+    <t>COM_COMPANY</t>
+  </si>
+  <si>
+    <t>ORG_ORG_UNIT_REL_TYPE</t>
+  </si>
+  <si>
+    <t>ORG_ORG_UNIT_TYPE</t>
+  </si>
+  <si>
+    <t>ORG_ORG_UNIT</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +2013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3349,6 +3374,437 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277991C1-BD68-41F6-AAE7-DBF3D781C01B}">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -3454,7 +3910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
@@ -3519,7 +3975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI437"/>
   <sheetViews>

--- a/sp1/07_tabelleninhalte/flights_tabellenstruktur.xlsx
+++ b/sp1/07_tabelleninhalte/flights_tabellenstruktur.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\09_Firmen\09_Gaudl_Flugzeugvermietung\git\sp1\07_tabelleninhalte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\01_proj1_flight\sp1\07_tabelleninhalte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354FD5FA-2CFF-40CD-BA55-7ADA967ACF02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169E67A5-9AAA-4C65-968E-00A489618C5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="0" windowWidth="13680" windowHeight="13080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neues Textdokument" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5655" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5714" uniqueCount="371">
   <si>
     <t>APL_ENGINE_TYPE</t>
   </si>
@@ -1154,7 +1154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1289,8 +1289,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1488,6 +1501,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1649,13 +1668,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2014,7 +2036,7 @@
   <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A13" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3375,432 +3397,808 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277991C1-BD68-41F6-AAE7-DBF3D781C01B}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="6" width="30.46484375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="7">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9" s="7"/>
+      <c r="E9" s="4">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E10" s="4">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>0</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>0</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="E30" s="4">
+        <v>7</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="4">
+        <v>729</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="8">
+        <v>1</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37">
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38">
         <v>1</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E38" s="4">
+        <v>13</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+      <c r="E42" s="4">
+        <v>15</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+        <v>368</v>
+      </c>
+      <c r="E43" s="4">
+        <v>3</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>369</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E45" s="4">
+        <v>3</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E46" s="4">
+        <v>3</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>3</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E47" s="4">
+        <v>2</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>3</v>
       </c>
       <c r="B48" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E48" s="4">
+        <v>3</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>4</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E49" s="4">
+        <v>12</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>5</v>
       </c>
       <c r="B50" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E50" s="4">
+        <v>5</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>6</v>
       </c>
       <c r="B51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E51" s="4">
+        <v>8</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>11</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
+      <c r="E52" s="4">
+        <v>17</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E55" s="4">
+        <v>4</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E56" s="4">
+        <v>17</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E58" s="4">
+        <v>90</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E59" s="4">
+        <v>12</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E60" s="4">
+        <v>42</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sp1/07_tabelleninhalte/flights_tabellenstruktur.xlsx
+++ b/sp1/07_tabelleninhalte/flights_tabellenstruktur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjekte\01_proj1_flight\sp1\07_tabelleninhalte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169E67A5-9AAA-4C65-968E-00A489618C5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4041A04-0952-406E-8F3F-F1C6629185EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neues Textdokument" sheetId="1" r:id="rId1"/>
@@ -1668,7 +1668,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1678,6 +1678,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2035,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2637,10 +2638,10 @@
         <f t="shared" si="0"/>
         <v>REL_DOC_PLANE</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <v>3</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J27">
@@ -2659,10 +2660,10 @@
         <f t="shared" si="0"/>
         <v>REL_INV_PL_FLI_CH</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="5">
         <v>42</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="5" t="s">
         <v>57</v>
       </c>
       <c r="J28">
@@ -2681,10 +2682,10 @@
         <f t="shared" si="0"/>
         <v>REL_PAY_PLANE_FLI_CH</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="5">
         <v>8</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="5" t="s">
         <v>50</v>
       </c>
       <c r="J29">
@@ -2703,10 +2704,10 @@
         <f t="shared" si="0"/>
         <v>REL_PLANE_FLIGHT</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J30">
@@ -3099,10 +3100,10 @@
         <f t="shared" si="0"/>
         <v>REL_ORG_UNIT_CON_ORG_REL_TYPE</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="F48" s="5">
+        <v>2</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J48">
@@ -3399,8 +3400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277991C1-BD68-41F6-AAE7-DBF3D781C01B}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3735,7 +3736,7 @@
       <c r="A24">
         <v>2</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="4">
